--- a/data/trans_orig/P19C07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C07-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BD22A75-F4CA-4C24-AEA3-635DF83D7440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D508405F-8D41-45C4-B643-1D9C779EE128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2BF2D419-34E2-4540-85A8-FA0931BC0FC2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ECA40900-2C42-4A19-9E26-9E224F8D1A38}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="373">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,1117 +77,1087 @@
     <t>5,42%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
   </si>
   <si>
     <t>92,65%</t>
   </si>
   <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
   </si>
   <si>
     <t>4,21%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
   <si>
     <t>95,79%</t>
   </si>
   <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
   </si>
   <si>
     <t>96,78%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E0CE17-97C8-4748-978A-C461976C7295}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F20E63E-1480-4D7F-BA70-020B0C518EFE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1914,7 +1884,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,13 +1899,13 @@
         <v>388395</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>420</v>
@@ -1944,13 +1914,13 @@
         <v>425732</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>808</v>
@@ -1959,13 +1929,13 @@
         <v>814127</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,7 +1991,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2033,13 +2003,13 @@
         <v>28482</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2048,13 +2018,13 @@
         <v>22508</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>48</v>
@@ -2063,13 +2033,13 @@
         <v>50990</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,13 +2054,13 @@
         <v>693646</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>734</v>
@@ -2099,13 +2069,13 @@
         <v>781718</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>1376</v>
@@ -2114,13 +2084,13 @@
         <v>1475364</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,7 +2188,7 @@
         <v>37728</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>74</v>
@@ -2269,7 +2239,7 @@
         <v>1091970</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>82</v>
@@ -2501,10 +2471,10 @@
         <v>71</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>95</v>
@@ -2516,10 +2486,10 @@
         <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>179</v>
@@ -2528,13 +2498,13 @@
         <v>179412</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,10 +2522,10 @@
         <v>79</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
         <v>2584</v>
@@ -2564,13 +2534,13 @@
         <v>2645846</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>4907</v>
@@ -2579,13 +2549,13 @@
         <v>5016267</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,7 +2611,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2662,7 +2632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9937402-D425-4E3D-8776-64C5B9B8A3A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D893BEB1-3CC6-411D-A6DD-A3A3E646BA67}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2679,7 +2649,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2786,13 +2756,13 @@
         <v>2395</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2801,13 +2771,13 @@
         <v>5448</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -2816,13 +2786,13 @@
         <v>7843</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,13 +2807,13 @@
         <v>98359</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7">
         <v>77</v>
@@ -2852,13 +2822,13 @@
         <v>88370</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>180</v>
@@ -2867,13 +2837,13 @@
         <v>186729</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2911,13 @@
         <v>19073</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -2956,13 +2926,13 @@
         <v>16869</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -2971,13 +2941,13 @@
         <v>35942</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +2962,13 @@
         <v>486124</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>493</v>
@@ -3007,13 +2977,13 @@
         <v>525114</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>950</v>
@@ -3022,13 +2992,13 @@
         <v>1011238</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,7 +3054,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3096,13 +3066,13 @@
         <v>24580</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -3111,13 +3081,13 @@
         <v>40809</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
@@ -3126,13 +3096,13 @@
         <v>65389</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,28 +3117,28 @@
         <v>842418</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H11" s="7">
         <v>785</v>
       </c>
       <c r="I11" s="7">
-        <v>858014</v>
+        <v>858013</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M11" s="7">
         <v>1562</v>
@@ -3177,13 +3147,13 @@
         <v>1700432</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,7 +3180,7 @@
         <v>821</v>
       </c>
       <c r="I12" s="7">
-        <v>898823</v>
+        <v>898822</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3251,13 +3221,13 @@
         <v>22947</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -3266,13 +3236,13 @@
         <v>14628</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -3281,13 +3251,13 @@
         <v>37576</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,13 +3272,13 @@
         <v>613086</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>602</v>
@@ -3317,13 +3287,13 @@
         <v>663869</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>1163</v>
@@ -3332,13 +3302,13 @@
         <v>1276954</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,13 +3376,13 @@
         <v>28399</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -3421,13 +3391,13 @@
         <v>35185</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -3436,13 +3406,13 @@
         <v>63585</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,13 +3427,13 @@
         <v>777277</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>853</v>
@@ -3472,13 +3442,13 @@
         <v>898016</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>1600</v>
@@ -3487,13 +3457,13 @@
         <v>1675292</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3531,13 @@
         <v>97394</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="H19" s="7">
         <v>105</v>
@@ -3576,13 +3546,13 @@
         <v>112940</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="M19" s="7">
         <v>196</v>
@@ -3594,10 +3564,10 @@
         <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,28 +3582,28 @@
         <v>2817264</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="H20" s="7">
         <v>2810</v>
       </c>
       <c r="I20" s="7">
-        <v>3033382</v>
+        <v>3033381</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="M20" s="7">
         <v>5455</v>
@@ -3642,13 +3612,13 @@
         <v>5850646</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>203</v>
+        <v>43</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,7 +3645,7 @@
         <v>2915</v>
       </c>
       <c r="I21" s="7">
-        <v>3146322</v>
+        <v>3146321</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3704,7 +3674,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3725,7 +3695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C72D4EB-C497-486B-A67A-98FF3244C4F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707DF067-1384-4F34-AEC8-296A26194806}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3742,7 +3712,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3849,13 +3819,13 @@
         <v>2735</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3864,13 +3834,13 @@
         <v>2755</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3879,13 +3849,13 @@
         <v>5490</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3870,13 @@
         <v>96040</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="H5" s="7">
         <v>99</v>
@@ -3915,13 +3885,13 @@
         <v>98246</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="M5" s="7">
         <v>191</v>
@@ -3930,13 +3900,13 @@
         <v>194286</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +3974,13 @@
         <v>11373</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4019,13 +3989,13 @@
         <v>23995</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -4034,13 +4004,13 @@
         <v>35368</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>195</v>
+        <v>89</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4025,13 @@
         <v>414845</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="H8" s="7">
         <v>418</v>
@@ -4070,13 +4040,13 @@
         <v>419366</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="M8" s="7">
         <v>819</v>
@@ -4085,13 +4055,13 @@
         <v>834212</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,7 +4117,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4159,13 +4129,13 @@
         <v>29658</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -4174,13 +4144,13 @@
         <v>28420</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -4189,13 +4159,13 @@
         <v>58078</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4180,13 @@
         <v>786688</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="H11" s="7">
         <v>789</v>
@@ -4225,13 +4195,13 @@
         <v>837953</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="M11" s="7">
         <v>1516</v>
@@ -4240,13 +4210,13 @@
         <v>1624641</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,13 +4284,13 @@
         <v>12132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4329,13 +4299,13 @@
         <v>23088</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -4344,13 +4314,13 @@
         <v>35220</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4335,13 @@
         <v>538228</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>259</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
         <v>530</v>
@@ -4380,13 +4350,13 @@
         <v>556650</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>263</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>1019</v>
@@ -4395,13 +4365,13 @@
         <v>1094878</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>174</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,13 +4439,13 @@
         <v>19867</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -4484,13 +4454,13 @@
         <v>24818</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -4499,13 +4469,13 @@
         <v>44685</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>272</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>273</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4490,13 @@
         <v>752768</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>790</v>
@@ -4535,13 +4505,13 @@
         <v>852023</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>1538</v>
@@ -4550,13 +4520,13 @@
         <v>1604791</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>281</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>283</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,13 +4594,13 @@
         <v>75765</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="H19" s="7">
         <v>101</v>
@@ -4639,13 +4609,13 @@
         <v>103076</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>154</v>
+        <v>294</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="M19" s="7">
         <v>174</v>
@@ -4657,10 +4627,10 @@
         <v>68</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,16 +4642,16 @@
         <v>2457</v>
       </c>
       <c r="D20" s="7">
-        <v>2588569</v>
+        <v>2588568</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>2626</v>
@@ -4690,28 +4660,28 @@
         <v>2764239</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>164</v>
+        <v>298</v>
       </c>
       <c r="M20" s="7">
         <v>5083</v>
       </c>
       <c r="N20" s="7">
-        <v>5352808</v>
+        <v>5352807</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>76</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,7 +4693,7 @@
         <v>2530</v>
       </c>
       <c r="D21" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4753,7 +4723,7 @@
         <v>5257</v>
       </c>
       <c r="N21" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4767,7 +4737,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4788,7 +4758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78233774-E93C-4E70-95D7-3504A0BCFBC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF873F5-32AC-4BC3-9276-7BED55C7EF08}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4805,7 +4775,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4912,13 +4882,13 @@
         <v>4355</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4927,13 +4897,13 @@
         <v>5446</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>295</v>
+        <v>106</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -4942,13 +4912,13 @@
         <v>9802</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,13 +4933,13 @@
         <v>96119</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7">
         <v>232</v>
@@ -4978,13 +4948,13 @@
         <v>122840</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>303</v>
+        <v>112</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M5" s="7">
         <v>345</v>
@@ -4993,13 +4963,13 @@
         <v>218958</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,13 +5037,13 @@
         <v>20186</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5082,13 +5052,13 @@
         <v>19234</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>313</v>
+        <v>86</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -5100,10 +5070,10 @@
         <v>91</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5088,13 @@
         <v>505963</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="H8" s="7">
         <v>934</v>
@@ -5133,13 +5103,13 @@
         <v>550263</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>322</v>
+        <v>96</v>
       </c>
       <c r="M8" s="7">
         <v>1497</v>
@@ -5151,10 +5121,10 @@
         <v>100</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5210,7 +5180,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5222,13 +5192,13 @@
         <v>24669</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -5237,13 +5207,13 @@
         <v>37947</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -5252,13 +5222,13 @@
         <v>62616</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>330</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>331</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,13 +5258,13 @@
         <v>1004153</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>335</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>2357</v>
@@ -5306,10 +5276,10 @@
         <v>336</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>337</v>
+        <v>187</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>338</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,13 +5347,13 @@
         <v>36225</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>340</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -5392,13 +5362,13 @@
         <v>44622</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
@@ -5407,13 +5377,13 @@
         <v>80847</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,13 +5398,13 @@
         <v>672316</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>350</v>
+        <v>213</v>
       </c>
       <c r="H14" s="7">
         <v>966</v>
@@ -5443,13 +5413,13 @@
         <v>817566</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M14" s="7">
         <v>1589</v>
@@ -5458,13 +5428,13 @@
         <v>1489883</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5502,13 @@
         <v>21154</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>357</v>
+        <v>237</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -5547,13 +5517,13 @@
         <v>44175</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>360</v>
+        <v>177</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="M16" s="7">
         <v>69</v>
@@ -5562,13 +5532,13 @@
         <v>65329</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,13 +5553,13 @@
         <v>905224</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>365</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>1461</v>
@@ -5598,13 +5568,13 @@
         <v>1070601</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>368</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
         <v>2407</v>
@@ -5613,13 +5583,13 @@
         <v>1975825</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>108</v>
+        <v>361</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,13 +5657,13 @@
         <v>106588</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>373</v>
+        <v>206</v>
       </c>
       <c r="H19" s="7">
         <v>181</v>
@@ -5702,13 +5672,13 @@
         <v>151425</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>57</v>
+        <v>365</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="M19" s="7">
         <v>275</v>
@@ -5717,13 +5687,13 @@
         <v>258013</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>375</v>
+        <v>267</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5738,13 +5708,13 @@
         <v>3170550</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>378</v>
+        <v>211</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="H20" s="7">
         <v>5036</v>
@@ -5753,13 +5723,13 @@
         <v>3565423</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>65</v>
+        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>8195</v>
@@ -5768,13 +5738,13 @@
         <v>6735973</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>381</v>
+        <v>273</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>361</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,7 +5800,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C07-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D508405F-8D41-45C4-B643-1D9C779EE128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E789752-788F-4330-8C4D-A44B9B0DB431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ECA40900-2C42-4A19-9E26-9E224F8D1A38}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{07AF8CA2-B547-4378-876A-8DA7AB19C67D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="355">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,28 +77,28 @@
     <t>5,42%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
   </si>
   <si>
     <t>3,83%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,1045 +107,991 @@
     <t>94,58%</t>
   </si>
   <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
   </si>
   <si>
     <t>96,17%</t>
   </si>
   <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>97,59%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>97,29%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>15,77%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
   </si>
   <si>
     <t>95,75%</t>
   </si>
   <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>4,13%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
   </si>
   <si>
     <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
   </si>
   <si>
     <t>97,42%</t>
@@ -1569,7 +1515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F20E63E-1480-4D7F-BA70-020B0C518EFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54F4B87-C680-4566-AD98-780B053672F6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1741,7 +1687,7 @@
         <v>66</v>
       </c>
       <c r="D5" s="7">
-        <v>73548</v>
+        <v>73549</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1792,7 +1738,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>77765</v>
+        <v>77766</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1884,7 +1830,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1899,13 +1845,13 @@
         <v>388395</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>420</v>
@@ -1914,13 +1860,13 @@
         <v>425732</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>808</v>
@@ -1929,13 +1875,13 @@
         <v>814127</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1991,7 +1937,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2003,13 +1949,13 @@
         <v>28482</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2018,13 +1964,13 @@
         <v>22508</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>48</v>
@@ -2033,13 +1979,13 @@
         <v>50990</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2054,13 +2000,13 @@
         <v>693646</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>734</v>
@@ -2069,13 +2015,13 @@
         <v>781718</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1376</v>
@@ -2084,13 +2030,13 @@
         <v>1475364</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2146,7 +2092,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2158,13 +2104,13 @@
         <v>17609</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -2173,13 +2119,13 @@
         <v>20119</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -2188,13 +2134,13 @@
         <v>37728</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,13 +2155,13 @@
         <v>527480</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>576</v>
@@ -2224,13 +2170,13 @@
         <v>564490</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>1073</v>
@@ -2239,13 +2185,13 @@
         <v>1091970</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,7 +2247,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2313,13 +2259,13 @@
         <v>22335</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -2328,13 +2274,13 @@
         <v>32459</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -2343,13 +2289,13 @@
         <v>54794</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,13 +2310,13 @@
         <v>687353</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>750</v>
@@ -2379,13 +2325,13 @@
         <v>781539</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1480</v>
@@ -2394,13 +2340,13 @@
         <v>1468892</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,13 +2414,13 @@
         <v>84321</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>95</v>
@@ -2486,10 +2432,10 @@
         <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="M19" s="7">
         <v>179</v>
@@ -2519,7 +2465,7 @@
         <v>2370421</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>110</v>
@@ -2534,13 +2480,13 @@
         <v>2645846</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="M20" s="7">
         <v>4907</v>
@@ -2549,13 +2495,13 @@
         <v>5016267</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,7 +2557,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2632,7 +2578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D893BEB1-3CC6-411D-A6DD-A3A3E646BA67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0574F0-5715-47CB-95B1-D8D9022F9066}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2649,7 +2595,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2756,13 +2702,13 @@
         <v>2395</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2771,13 +2717,13 @@
         <v>5448</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -2786,13 +2732,13 @@
         <v>7843</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,13 +2753,13 @@
         <v>98359</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
         <v>77</v>
@@ -2822,13 +2768,13 @@
         <v>88370</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M5" s="7">
         <v>180</v>
@@ -2837,13 +2783,13 @@
         <v>186729</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +2857,13 @@
         <v>19073</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -2926,13 +2872,13 @@
         <v>16869</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -2941,13 +2887,13 @@
         <v>35942</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,13 +2908,13 @@
         <v>486124</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H8" s="7">
         <v>493</v>
@@ -2977,13 +2923,13 @@
         <v>525114</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="M8" s="7">
         <v>950</v>
@@ -2992,13 +2938,13 @@
         <v>1011238</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,7 +3000,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3066,13 +3012,13 @@
         <v>24580</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -3081,13 +3027,13 @@
         <v>40809</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
@@ -3096,13 +3042,13 @@
         <v>65389</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,13 +3063,13 @@
         <v>842418</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H11" s="7">
         <v>785</v>
@@ -3132,13 +3078,13 @@
         <v>858013</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>1562</v>
@@ -3147,13 +3093,13 @@
         <v>1700432</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,7 +3155,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3221,13 +3167,13 @@
         <v>22947</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -3236,13 +3182,13 @@
         <v>14628</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -3251,13 +3197,13 @@
         <v>37576</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,13 +3218,13 @@
         <v>613086</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>602</v>
@@ -3287,13 +3233,13 @@
         <v>663869</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>1163</v>
@@ -3302,13 +3248,13 @@
         <v>1276954</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,7 +3310,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3376,13 +3322,13 @@
         <v>28399</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -3391,13 +3337,13 @@
         <v>35185</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -3406,13 +3352,13 @@
         <v>63585</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,13 +3373,13 @@
         <v>777277</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
         <v>853</v>
@@ -3442,13 +3388,13 @@
         <v>898016</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
         <v>1600</v>
@@ -3457,13 +3403,13 @@
         <v>1675292</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>186</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,13 +3477,13 @@
         <v>97394</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="H19" s="7">
         <v>105</v>
@@ -3546,13 +3492,13 @@
         <v>112940</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="M19" s="7">
         <v>196</v>
@@ -3564,10 +3510,10 @@
         <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,13 +3528,13 @@
         <v>2817264</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="H20" s="7">
         <v>2810</v>
@@ -3597,13 +3543,13 @@
         <v>3033381</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="M20" s="7">
         <v>5455</v>
@@ -3612,13 +3558,13 @@
         <v>5850646</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,7 +3620,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3695,7 +3641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707DF067-1384-4F34-AEC8-296A26194806}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FC0C4F-7E5F-4305-B887-B1A5DD5ED2F1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3712,7 +3658,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3819,13 +3765,13 @@
         <v>2735</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3834,13 +3780,13 @@
         <v>2755</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3849,13 +3795,13 @@
         <v>5490</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,13 +3816,13 @@
         <v>96040</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="H5" s="7">
         <v>99</v>
@@ -3885,13 +3831,13 @@
         <v>98246</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="M5" s="7">
         <v>191</v>
@@ -3900,13 +3846,13 @@
         <v>194286</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +3920,13 @@
         <v>11373</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -3989,13 +3935,13 @@
         <v>23995</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -4004,13 +3950,13 @@
         <v>35368</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,13 +3971,13 @@
         <v>414845</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="H8" s="7">
         <v>418</v>
@@ -4040,13 +3986,13 @@
         <v>419366</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>248</v>
+        <v>102</v>
       </c>
       <c r="M8" s="7">
         <v>819</v>
@@ -4055,13 +4001,13 @@
         <v>834212</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,7 +4063,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4129,13 +4075,13 @@
         <v>29658</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>75</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -4144,13 +4090,13 @@
         <v>28420</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -4162,10 +4108,10 @@
         <v>107</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,13 +4126,13 @@
         <v>786688</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>259</v>
+        <v>82</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>260</v>
+        <v>46</v>
       </c>
       <c r="H11" s="7">
         <v>789</v>
@@ -4195,13 +4141,13 @@
         <v>837953</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>263</v>
+        <v>129</v>
       </c>
       <c r="M11" s="7">
         <v>1516</v>
@@ -4210,13 +4156,13 @@
         <v>1624641</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,7 +4218,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4284,13 +4230,13 @@
         <v>12132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>166</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4299,13 +4245,13 @@
         <v>23088</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -4314,13 +4260,13 @@
         <v>35220</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4281,13 @@
         <v>538228</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="H14" s="7">
         <v>530</v>
@@ -4350,13 +4296,13 @@
         <v>556650</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="M14" s="7">
         <v>1019</v>
@@ -4365,13 +4311,13 @@
         <v>1094878</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,7 +4373,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4439,13 +4385,13 @@
         <v>19867</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>35</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -4454,13 +4400,13 @@
         <v>24818</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -4469,13 +4415,13 @@
         <v>44685</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,13 +4436,13 @@
         <v>752768</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>44</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="H17" s="7">
         <v>790</v>
@@ -4505,13 +4451,13 @@
         <v>852023</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="M17" s="7">
         <v>1538</v>
@@ -4520,13 +4466,13 @@
         <v>1604791</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4540,13 @@
         <v>75765</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="H19" s="7">
         <v>101</v>
@@ -4609,13 +4555,13 @@
         <v>103076</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>294</v>
+        <v>196</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>174</v>
@@ -4624,13 +4570,13 @@
         <v>178841</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>296</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>192</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,16 +4588,16 @@
         <v>2457</v>
       </c>
       <c r="D20" s="7">
-        <v>2588568</v>
+        <v>2588569</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>258</v>
+        <v>185</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H20" s="7">
         <v>2626</v>
@@ -4660,13 +4606,13 @@
         <v>2764239</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>298</v>
+        <v>204</v>
       </c>
       <c r="M20" s="7">
         <v>5083</v>
@@ -4675,13 +4621,13 @@
         <v>5352807</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>299</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,7 +4639,7 @@
         <v>2530</v>
       </c>
       <c r="D21" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4737,7 +4683,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4758,7 +4704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF873F5-32AC-4BC3-9276-7BED55C7EF08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A9ABBF-C535-4B12-A3E6-0C85D9090CF6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4775,7 +4721,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4882,13 +4828,13 @@
         <v>4355</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>301</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4897,13 +4843,13 @@
         <v>5446</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>106</v>
+        <v>278</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -4912,13 +4858,13 @@
         <v>9802</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4879,13 @@
         <v>96119</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>308</v>
+        <v>203</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
         <v>232</v>
@@ -4948,13 +4894,13 @@
         <v>122840</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>112</v>
+        <v>284</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="M5" s="7">
         <v>345</v>
@@ -4963,13 +4909,13 @@
         <v>218958</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +4983,13 @@
         <v>20186</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5052,13 +4998,13 @@
         <v>19234</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -5067,13 +5013,13 @@
         <v>39420</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,13 +5034,13 @@
         <v>505963</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="H8" s="7">
         <v>934</v>
@@ -5103,13 +5049,13 @@
         <v>550263</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>1497</v>
@@ -5118,13 +5064,13 @@
         <v>1056226</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,7 +5126,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5192,13 +5138,13 @@
         <v>24669</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>329</v>
+        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -5207,13 +5153,13 @@
         <v>37947</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>305</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>239</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -5222,13 +5168,13 @@
         <v>62616</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>308</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5243,13 +5189,13 @@
         <v>990927</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>333</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="H11" s="7">
         <v>1443</v>
@@ -5258,13 +5204,13 @@
         <v>1004153</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>248</v>
+        <v>312</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>2357</v>
@@ -5273,13 +5219,13 @@
         <v>1995080</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>187</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,7 +5281,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5347,13 +5293,13 @@
         <v>36225</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -5362,13 +5308,13 @@
         <v>44622</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
@@ -5377,13 +5323,13 @@
         <v>80847</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,13 +5344,13 @@
         <v>672316</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H14" s="7">
         <v>966</v>
@@ -5413,13 +5359,13 @@
         <v>817566</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="M14" s="7">
         <v>1589</v>
@@ -5428,13 +5374,13 @@
         <v>1489883</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,7 +5436,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5502,13 +5448,13 @@
         <v>21154</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>123</v>
+        <v>333</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>237</v>
+        <v>334</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -5517,13 +5463,13 @@
         <v>44175</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="M16" s="7">
         <v>69</v>
@@ -5532,13 +5478,13 @@
         <v>65329</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>356</v>
+        <v>139</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>357</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,13 +5499,13 @@
         <v>905224</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>133</v>
+        <v>338</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>245</v>
+        <v>339</v>
       </c>
       <c r="H17" s="7">
         <v>1461</v>
@@ -5568,13 +5514,13 @@
         <v>1070601</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="M17" s="7">
         <v>2407</v>
@@ -5583,13 +5529,13 @@
         <v>1975825</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>361</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>362</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,13 +5603,13 @@
         <v>106588</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>206</v>
+        <v>345</v>
       </c>
       <c r="H19" s="7">
         <v>181</v>
@@ -5672,13 +5618,13 @@
         <v>151425</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="M19" s="7">
         <v>275</v>
@@ -5687,13 +5633,13 @@
         <v>258013</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>267</v>
+        <v>166</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>357</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +5654,13 @@
         <v>3170550</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>211</v>
+        <v>350</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="H20" s="7">
         <v>5036</v>
@@ -5723,13 +5669,13 @@
         <v>3565423</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="M20" s="7">
         <v>8195</v>
@@ -5738,13 +5684,13 @@
         <v>6735973</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>64</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,7 +5746,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C07-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E789752-788F-4330-8C4D-A44B9B0DB431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39D1420E-9315-4895-8BD3-0B565DFCA58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{07AF8CA2-B547-4378-876A-8DA7AB19C67D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F5DAB386-8661-4DEE-B645-F2BA232FDC78}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="383">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -71,1039 +71,1123 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
   </si>
   <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
+    <t>95,24%</t>
   </si>
   <si>
     <t>96,31%</t>
   </si>
   <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>96,81%</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +1599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54F4B87-C680-4566-AD98-780B053672F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7C5A1B-FE60-4D54-9F5B-751643072C1F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1687,7 +1771,7 @@
         <v>66</v>
       </c>
       <c r="D5" s="7">
-        <v>73549</v>
+        <v>73548</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1738,7 +1822,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>77766</v>
+        <v>77765</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1982,10 +2066,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,13 +2084,13 @@
         <v>693646</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>734</v>
@@ -2015,13 +2099,13 @@
         <v>781718</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1376</v>
@@ -2030,13 +2114,13 @@
         <v>1475364</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,7 +2176,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2104,13 +2188,13 @@
         <v>17609</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -2119,13 +2203,13 @@
         <v>20119</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -2137,10 +2221,10 @@
         <v>57</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,13 +2239,13 @@
         <v>527480</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>576</v>
@@ -2170,13 +2254,13 @@
         <v>564490</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>1073</v>
@@ -2185,13 +2269,13 @@
         <v>1091970</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,7 +2331,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2259,13 +2343,13 @@
         <v>22335</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -2274,13 +2358,13 @@
         <v>32459</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -2289,13 +2373,13 @@
         <v>54794</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,13 +2394,13 @@
         <v>687353</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>750</v>
@@ -2325,13 +2409,13 @@
         <v>781539</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1480</v>
@@ -2340,13 +2424,13 @@
         <v>1468892</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,13 +2498,13 @@
         <v>84321</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>95</v>
@@ -2432,10 +2516,10 @@
         <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="M19" s="7">
         <v>179</v>
@@ -2444,13 +2528,13 @@
         <v>179412</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,13 +2549,13 @@
         <v>2370421</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>2584</v>
@@ -2483,10 +2567,10 @@
         <v>47</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>4907</v>
@@ -2495,13 +2579,13 @@
         <v>5016267</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,7 +2641,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2578,7 +2662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0574F0-5715-47CB-95B1-D8D9022F9066}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EBC0DC-FA5D-4BD8-8AD3-BD1A2500F185}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2595,7 +2679,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2702,13 +2786,13 @@
         <v>2395</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2717,13 +2801,13 @@
         <v>5448</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -2732,13 +2816,13 @@
         <v>7843</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,13 +2837,13 @@
         <v>98359</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="H5" s="7">
         <v>77</v>
@@ -2860,10 +2944,10 @@
         <v>133</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -2872,10 +2956,10 @@
         <v>16869</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>137</v>
@@ -2893,7 +2977,7 @@
         <v>139</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2992,13 @@
         <v>486124</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="H8" s="7">
         <v>493</v>
@@ -2923,13 +3007,13 @@
         <v>525114</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M8" s="7">
         <v>950</v>
@@ -2938,13 +3022,13 @@
         <v>1011238</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,13 +3096,13 @@
         <v>24580</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -3027,7 +3111,7 @@
         <v>40809</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>151</v>
@@ -3045,10 +3129,10 @@
         <v>153</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,28 +3147,28 @@
         <v>842418</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H11" s="7">
         <v>785</v>
       </c>
       <c r="I11" s="7">
-        <v>858013</v>
+        <v>858014</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M11" s="7">
         <v>1562</v>
@@ -3093,13 +3177,13 @@
         <v>1700432</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,7 +3210,7 @@
         <v>821</v>
       </c>
       <c r="I12" s="7">
-        <v>898822</v>
+        <v>898823</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3155,7 +3239,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3167,13 +3251,13 @@
         <v>22947</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -3182,13 +3266,13 @@
         <v>14628</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -3197,13 +3281,13 @@
         <v>37576</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3302,13 @@
         <v>613086</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>602</v>
@@ -3233,13 +3317,13 @@
         <v>663869</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>1163</v>
@@ -3248,13 +3332,13 @@
         <v>1276954</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,7 +3394,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3322,13 +3406,13 @@
         <v>28399</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -3337,13 +3421,13 @@
         <v>35185</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>182</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -3352,13 +3436,13 @@
         <v>63585</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3457,13 @@
         <v>777277</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H17" s="7">
         <v>853</v>
@@ -3388,10 +3472,10 @@
         <v>898016</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>190</v>
@@ -3409,7 +3493,7 @@
         <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,7 +3567,7 @@
         <v>193</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="H19" s="7">
         <v>105</v>
@@ -3492,13 +3576,13 @@
         <v>112940</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M19" s="7">
         <v>196</v>
@@ -3510,10 +3594,10 @@
         <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,28 +3612,28 @@
         <v>2817264</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H20" s="7">
         <v>2810</v>
       </c>
       <c r="I20" s="7">
-        <v>3033381</v>
+        <v>3033382</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M20" s="7">
         <v>5455</v>
@@ -3561,10 +3645,10 @@
         <v>47</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,7 +3675,7 @@
         <v>2915</v>
       </c>
       <c r="I21" s="7">
-        <v>3146321</v>
+        <v>3146322</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3620,7 +3704,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3641,7 +3725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FC0C4F-7E5F-4305-B887-B1A5DD5ED2F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9C891F-907D-42B2-AFD6-A7A6427FF75C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3658,7 +3742,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3765,13 +3849,13 @@
         <v>2735</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3780,13 +3864,13 @@
         <v>2755</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>209</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -3795,13 +3879,13 @@
         <v>5490</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,13 +3900,13 @@
         <v>96040</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H5" s="7">
         <v>99</v>
@@ -3831,13 +3915,13 @@
         <v>98246</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M5" s="7">
         <v>191</v>
@@ -3938,10 +4022,10 @@
         <v>225</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>93</v>
+        <v>226</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -3950,13 +4034,13 @@
         <v>35368</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,13 +4055,13 @@
         <v>414845</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H8" s="7">
         <v>418</v>
@@ -3986,13 +4070,13 @@
         <v>419366</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="M8" s="7">
         <v>819</v>
@@ -4001,13 +4085,13 @@
         <v>834212</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,13 +4159,13 @@
         <v>29658</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>239</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -4090,13 +4174,13 @@
         <v>28420</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>120</v>
+        <v>242</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -4105,13 +4189,13 @@
         <v>58078</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,13 +4210,13 @@
         <v>786688</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>247</v>
       </c>
       <c r="H11" s="7">
         <v>789</v>
@@ -4141,13 +4225,13 @@
         <v>837953</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="M11" s="7">
         <v>1516</v>
@@ -4156,13 +4240,13 @@
         <v>1624641</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,7 +4302,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4230,13 +4314,13 @@
         <v>12132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>162</v>
+        <v>252</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4245,13 +4329,13 @@
         <v>23088</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -4260,13 +4344,13 @@
         <v>35220</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,13 +4365,13 @@
         <v>538228</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>171</v>
+        <v>259</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>530</v>
@@ -4296,13 +4380,13 @@
         <v>556650</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
         <v>1019</v>
@@ -4311,13 +4395,13 @@
         <v>1094878</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>257</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,7 +4457,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4385,13 +4469,13 @@
         <v>19867</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>35</v>
+        <v>268</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -4400,13 +4484,13 @@
         <v>24818</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -4415,13 +4499,13 @@
         <v>44685</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,13 +4520,13 @@
         <v>752768</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>44</v>
+        <v>276</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="H17" s="7">
         <v>790</v>
@@ -4451,13 +4535,13 @@
         <v>852023</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="M17" s="7">
         <v>1538</v>
@@ -4466,13 +4550,13 @@
         <v>1604791</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,13 +4624,13 @@
         <v>75765</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>177</v>
+        <v>285</v>
       </c>
       <c r="H19" s="7">
         <v>101</v>
@@ -4555,13 +4639,13 @@
         <v>103076</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="M19" s="7">
         <v>174</v>
@@ -4570,13 +4654,13 @@
         <v>178841</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>54</v>
+        <v>287</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>273</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,13 +4675,13 @@
         <v>2588569</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>185</v>
+        <v>288</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="H20" s="7">
         <v>2626</v>
@@ -4606,28 +4690,28 @@
         <v>2764239</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="M20" s="7">
         <v>5083</v>
       </c>
       <c r="N20" s="7">
-        <v>5352807</v>
+        <v>5352808</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>275</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>63</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,7 +4753,7 @@
         <v>5257</v>
       </c>
       <c r="N21" s="7">
-        <v>5531648</v>
+        <v>5531649</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4683,7 +4767,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4704,7 +4788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A9ABBF-C535-4B12-A3E6-0C85D9090CF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A3A8B8-F0C2-4ECC-A679-43313D9A7105}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4721,7 +4805,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4828,13 +4912,13 @@
         <v>4355</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>197</v>
+        <v>293</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4843,13 +4927,13 @@
         <v>5446</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -4858,13 +4942,13 @@
         <v>9802</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4963,13 @@
         <v>96119</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>203</v>
+        <v>301</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="H5" s="7">
         <v>232</v>
@@ -4894,13 +4978,13 @@
         <v>122840</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="M5" s="7">
         <v>345</v>
@@ -4909,13 +4993,13 @@
         <v>218958</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,13 +5067,13 @@
         <v>20186</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -4998,13 +5082,13 @@
         <v>19234</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>313</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -5013,13 +5097,13 @@
         <v>39420</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,13 +5118,13 @@
         <v>505963</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="H8" s="7">
         <v>934</v>
@@ -5049,13 +5133,13 @@
         <v>550263</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>322</v>
       </c>
       <c r="M8" s="7">
         <v>1497</v>
@@ -5064,13 +5148,13 @@
         <v>1056226</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,13 +5222,13 @@
         <v>24669</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -5153,13 +5237,13 @@
         <v>37947</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>305</v>
+        <v>169</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>239</v>
+        <v>183</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -5168,13 +5252,13 @@
         <v>62616</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5273,13 @@
         <v>990927</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="H11" s="7">
         <v>1443</v>
@@ -5204,13 +5288,13 @@
         <v>1004153</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>312</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>2357</v>
@@ -5219,13 +5303,13 @@
         <v>1995080</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,7 +5365,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5293,13 +5377,13 @@
         <v>36225</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>340</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -5308,13 +5392,13 @@
         <v>44622</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
@@ -5323,13 +5407,13 @@
         <v>80847</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5428,13 @@
         <v>672316</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>202</v>
+        <v>350</v>
       </c>
       <c r="H14" s="7">
         <v>966</v>
@@ -5359,13 +5443,13 @@
         <v>817566</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="M14" s="7">
         <v>1589</v>
@@ -5374,13 +5458,13 @@
         <v>1489883</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,7 +5520,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5448,13 +5532,13 @@
         <v>21154</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>333</v>
+        <v>119</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>289</v>
+        <v>358</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -5463,13 +5547,13 @@
         <v>44175</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>167</v>
+        <v>360</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
         <v>69</v>
@@ -5478,13 +5562,13 @@
         <v>65329</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>139</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,13 +5583,13 @@
         <v>905224</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>338</v>
+        <v>129</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>364</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="H17" s="7">
         <v>1461</v>
@@ -5514,13 +5598,13 @@
         <v>1070601</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>175</v>
+        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>2407</v>
@@ -5529,13 +5613,13 @@
         <v>1975825</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>148</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,13 +5687,13 @@
         <v>106588</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="H19" s="7">
         <v>181</v>
@@ -5618,13 +5702,13 @@
         <v>151425</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>346</v>
+        <v>57</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="M19" s="7">
         <v>275</v>
@@ -5633,13 +5717,13 @@
         <v>258013</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>166</v>
+        <v>375</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>56</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,13 +5738,13 @@
         <v>3170550</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="H20" s="7">
         <v>5036</v>
@@ -5669,13 +5753,13 @@
         <v>3565423</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>353</v>
+        <v>65</v>
       </c>
       <c r="M20" s="7">
         <v>8195</v>
@@ -5684,13 +5768,13 @@
         <v>6735973</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>173</v>
+        <v>381</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,7 +5830,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C07-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39D1420E-9315-4895-8BD3-0B565DFCA58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44D8AFB7-81FB-40F4-969E-5CCA4A076EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F5DAB386-8661-4DEE-B645-F2BA232FDC78}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{631E177C-935D-4835-B003-6180113AC2D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="306">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -68,1126 +68,895 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
   </si>
   <si>
     <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2012 (Tasa respuesta: 86,84%)</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por ortodoncia en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
   </si>
 </sst>
 </file>
@@ -1599,8 +1368,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7C5A1B-FE60-4D54-9F5B-751643072C1F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBED241-5EBF-4789-AA82-AF62513936DB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1717,10 +1486,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>4217</v>
+        <v>15894</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1732,10 +1501,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>2383</v>
+        <v>20006</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1747,10 +1516,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="N4" s="7">
-        <v>6600</v>
+        <v>35900</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1768,10 +1537,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>66</v>
+        <v>454</v>
       </c>
       <c r="D5" s="7">
-        <v>73548</v>
+        <v>461943</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1783,10 +1552,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>104</v>
+        <v>524</v>
       </c>
       <c r="I5" s="7">
-        <v>92365</v>
+        <v>518098</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1798,10 +1567,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>170</v>
+        <v>978</v>
       </c>
       <c r="N5" s="7">
-        <v>165914</v>
+        <v>980041</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1819,10 +1588,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="D6" s="7">
-        <v>77765</v>
+        <v>477837</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1834,10 +1603,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>107</v>
+        <v>546</v>
       </c>
       <c r="I6" s="7">
-        <v>94748</v>
+        <v>538104</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1849,10 +1618,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>177</v>
+        <v>1016</v>
       </c>
       <c r="N6" s="7">
-        <v>172514</v>
+        <v>1015941</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1872,10 +1641,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>11677</v>
+        <v>28482</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1887,10 +1656,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I7" s="7">
-        <v>17623</v>
+        <v>22508</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1902,10 +1671,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="N7" s="7">
-        <v>29300</v>
+        <v>50990</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1923,10 +1692,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>388</v>
+        <v>642</v>
       </c>
       <c r="D8" s="7">
-        <v>388395</v>
+        <v>693646</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1938,10 +1707,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>420</v>
+        <v>734</v>
       </c>
       <c r="I8" s="7">
-        <v>425732</v>
+        <v>781718</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1953,10 +1722,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>808</v>
+        <v>1376</v>
       </c>
       <c r="N8" s="7">
-        <v>814127</v>
+        <v>1475364</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1974,10 +1743,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>400</v>
+        <v>668</v>
       </c>
       <c r="D9" s="7">
-        <v>400072</v>
+        <v>722128</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1989,10 +1758,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>439</v>
+        <v>756</v>
       </c>
       <c r="I9" s="7">
-        <v>443355</v>
+        <v>804226</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2004,10 +1773,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>839</v>
+        <v>1424</v>
       </c>
       <c r="N9" s="7">
-        <v>843427</v>
+        <v>1526354</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2027,10 +1796,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>28482</v>
+        <v>17609</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2042,10 +1811,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>22508</v>
+        <v>20119</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2057,16 +1826,16 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N10" s="7">
-        <v>50990</v>
+        <v>37728</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>58</v>
@@ -2078,10 +1847,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>642</v>
+        <v>497</v>
       </c>
       <c r="D11" s="7">
-        <v>693646</v>
+        <v>527480</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
@@ -2093,10 +1862,10 @@
         <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>734</v>
+        <v>576</v>
       </c>
       <c r="I11" s="7">
-        <v>781718</v>
+        <v>564490</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>62</v>
@@ -2108,19 +1877,19 @@
         <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>1376</v>
+        <v>1073</v>
       </c>
       <c r="N11" s="7">
-        <v>1475364</v>
+        <v>1091970</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,10 +1898,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>668</v>
+        <v>515</v>
       </c>
       <c r="D12" s="7">
-        <v>722128</v>
+        <v>545089</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2144,10 +1913,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>756</v>
+        <v>596</v>
       </c>
       <c r="I12" s="7">
-        <v>804226</v>
+        <v>584609</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2159,10 +1928,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1424</v>
+        <v>1111</v>
       </c>
       <c r="N12" s="7">
-        <v>1526354</v>
+        <v>1129698</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2182,10 +1951,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>17609</v>
+        <v>22335</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>68</v>
@@ -2197,10 +1966,10 @@
         <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I13" s="7">
-        <v>20119</v>
+        <v>32459</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>71</v>
@@ -2212,19 +1981,19 @@
         <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="N13" s="7">
-        <v>37728</v>
+        <v>54794</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,49 +2002,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>497</v>
+        <v>730</v>
       </c>
       <c r="D14" s="7">
-        <v>527480</v>
+        <v>687353</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>576</v>
+        <v>750</v>
       </c>
       <c r="I14" s="7">
-        <v>564490</v>
+        <v>781539</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>1073</v>
+        <v>1480</v>
       </c>
       <c r="N14" s="7">
-        <v>1091970</v>
+        <v>1468892</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,10 +2053,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>515</v>
+        <v>754</v>
       </c>
       <c r="D15" s="7">
-        <v>545089</v>
+        <v>709688</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2299,10 +2068,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>596</v>
+        <v>781</v>
       </c>
       <c r="I15" s="7">
-        <v>584609</v>
+        <v>813998</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2314,10 +2083,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1111</v>
+        <v>1535</v>
       </c>
       <c r="N15" s="7">
-        <v>1129698</v>
+        <v>1523686</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2331,55 +2100,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="D16" s="7">
-        <v>22335</v>
+        <v>84321</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>95</v>
+      </c>
+      <c r="I16" s="7">
+        <v>95091</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="7">
-        <v>31</v>
-      </c>
-      <c r="I16" s="7">
-        <v>32459</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>179</v>
+      </c>
+      <c r="N16" s="7">
+        <v>179412</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="M16" s="7">
-        <v>55</v>
-      </c>
-      <c r="N16" s="7">
-        <v>54794</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,49 +2157,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>730</v>
+        <v>2323</v>
       </c>
       <c r="D17" s="7">
-        <v>687353</v>
+        <v>2370421</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2584</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2645846</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>4907</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5016267</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="7">
-        <v>750</v>
-      </c>
-      <c r="I17" s="7">
-        <v>781539</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1480</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1468892</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,10 +2208,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>754</v>
+        <v>2407</v>
       </c>
       <c r="D18" s="7">
-        <v>709688</v>
+        <v>2454742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2454,10 +2223,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>781</v>
+        <v>2679</v>
       </c>
       <c r="I18" s="7">
-        <v>813998</v>
+        <v>2740937</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2469,10 +2238,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1535</v>
+        <v>5086</v>
       </c>
       <c r="N18" s="7">
-        <v>1523686</v>
+        <v>5195679</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2485,171 +2254,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>84</v>
-      </c>
-      <c r="D19" s="7">
-        <v>84321</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="7">
-        <v>95</v>
-      </c>
-      <c r="I19" s="7">
-        <v>95091</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M19" s="7">
-        <v>179</v>
-      </c>
-      <c r="N19" s="7">
-        <v>179412</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2323</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2370421</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2584</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2645846</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4907</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5016267</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2407</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2454742</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2679</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2740937</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5086</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5195679</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>113</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2662,8 +2275,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EBC0DC-FA5D-4BD8-8AD3-BD1A2500F185}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BC4587-8DBD-4DB3-9792-5C15695CCD96}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2679,7 +2292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2780,49 +2393,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>2395</v>
+        <v>21468</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>5448</v>
+        <v>22317</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="N4" s="7">
-        <v>7843</v>
+        <v>43785</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,49 +2444,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>103</v>
+        <v>560</v>
       </c>
       <c r="D5" s="7">
-        <v>98359</v>
+        <v>584483</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="H5" s="7">
-        <v>77</v>
+        <v>570</v>
       </c>
       <c r="I5" s="7">
-        <v>88370</v>
+        <v>613484</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="M5" s="7">
-        <v>180</v>
+        <v>1130</v>
       </c>
       <c r="N5" s="7">
-        <v>186729</v>
+        <v>1197967</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,10 +2495,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>581</v>
       </c>
       <c r="D6" s="7">
-        <v>100754</v>
+        <v>605951</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2897,10 +2510,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>82</v>
+        <v>592</v>
       </c>
       <c r="I6" s="7">
-        <v>93818</v>
+        <v>635801</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2912,10 +2525,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>187</v>
+        <v>1173</v>
       </c>
       <c r="N6" s="7">
-        <v>194572</v>
+        <v>1241752</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2935,49 +2548,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>19073</v>
+        <v>24580</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I7" s="7">
-        <v>16869</v>
+        <v>40809</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="M7" s="7">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="N7" s="7">
-        <v>35942</v>
+        <v>65389</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,49 +2599,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>457</v>
+        <v>777</v>
       </c>
       <c r="D8" s="7">
-        <v>486124</v>
+        <v>842418</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H8" s="7">
-        <v>493</v>
+        <v>785</v>
       </c>
       <c r="I8" s="7">
-        <v>525114</v>
+        <v>858014</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="M8" s="7">
-        <v>950</v>
+        <v>1562</v>
       </c>
       <c r="N8" s="7">
-        <v>1011238</v>
+        <v>1700432</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,10 +2650,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>476</v>
+        <v>799</v>
       </c>
       <c r="D9" s="7">
-        <v>505197</v>
+        <v>866998</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3052,10 +2665,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>510</v>
+        <v>821</v>
       </c>
       <c r="I9" s="7">
-        <v>541983</v>
+        <v>898823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3067,10 +2680,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>986</v>
+        <v>1620</v>
       </c>
       <c r="N9" s="7">
-        <v>1047180</v>
+        <v>1765821</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3090,49 +2703,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>24580</v>
+        <v>22947</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="H10" s="7">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>40809</v>
+        <v>14628</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="M10" s="7">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="N10" s="7">
-        <v>65389</v>
+        <v>37576</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,49 +2754,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>777</v>
+        <v>561</v>
       </c>
       <c r="D11" s="7">
-        <v>842418</v>
+        <v>613086</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
-        <v>785</v>
+        <v>602</v>
       </c>
       <c r="I11" s="7">
-        <v>858014</v>
+        <v>663869</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="M11" s="7">
-        <v>1562</v>
+        <v>1163</v>
       </c>
       <c r="N11" s="7">
-        <v>1700432</v>
+        <v>1276953</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,10 +2805,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>799</v>
+        <v>582</v>
       </c>
       <c r="D12" s="7">
-        <v>866998</v>
+        <v>636033</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3207,10 +2820,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>821</v>
+        <v>615</v>
       </c>
       <c r="I12" s="7">
-        <v>898823</v>
+        <v>678497</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3222,10 +2835,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1620</v>
+        <v>1197</v>
       </c>
       <c r="N12" s="7">
-        <v>1765821</v>
+        <v>1314529</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3245,49 +2858,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>22947</v>
+        <v>28399</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I13" s="7">
-        <v>14628</v>
+        <v>35185</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="M13" s="7">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="N13" s="7">
-        <v>37576</v>
+        <v>63585</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,49 +2909,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>561</v>
+        <v>747</v>
       </c>
       <c r="D14" s="7">
-        <v>613086</v>
+        <v>777277</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="H14" s="7">
-        <v>602</v>
+        <v>853</v>
       </c>
       <c r="I14" s="7">
-        <v>663869</v>
+        <v>898016</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="M14" s="7">
-        <v>1163</v>
+        <v>1600</v>
       </c>
       <c r="N14" s="7">
-        <v>1276954</v>
+        <v>1675292</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,10 +2960,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>582</v>
+        <v>774</v>
       </c>
       <c r="D15" s="7">
-        <v>636033</v>
+        <v>805676</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3362,10 +2975,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>615</v>
+        <v>887</v>
       </c>
       <c r="I15" s="7">
-        <v>678497</v>
+        <v>933201</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3377,10 +2990,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1197</v>
+        <v>1661</v>
       </c>
       <c r="N15" s="7">
-        <v>1314530</v>
+        <v>1738877</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3394,55 +3007,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="D16" s="7">
-        <v>28399</v>
+        <v>97394</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="H16" s="7">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="I16" s="7">
-        <v>35185</v>
+        <v>112940</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="M16" s="7">
-        <v>61</v>
+        <v>196</v>
       </c>
       <c r="N16" s="7">
-        <v>63585</v>
+        <v>210334</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,49 +3064,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>747</v>
+        <v>2645</v>
       </c>
       <c r="D17" s="7">
-        <v>777277</v>
+        <v>2817265</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>186</v>
+        <v>47</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="H17" s="7">
-        <v>853</v>
+        <v>2810</v>
       </c>
       <c r="I17" s="7">
-        <v>898016</v>
+        <v>3033381</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="M17" s="7">
-        <v>1600</v>
+        <v>5455</v>
       </c>
       <c r="N17" s="7">
-        <v>1675292</v>
+        <v>5850646</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,10 +3115,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>774</v>
+        <v>2736</v>
       </c>
       <c r="D18" s="7">
-        <v>805676</v>
+        <v>2914659</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3517,10 +3130,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>887</v>
+        <v>2915</v>
       </c>
       <c r="I18" s="7">
-        <v>933201</v>
+        <v>3146321</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3532,10 +3145,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1661</v>
+        <v>5651</v>
       </c>
       <c r="N18" s="7">
-        <v>1738877</v>
+        <v>6060980</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3548,171 +3161,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>91</v>
-      </c>
-      <c r="D19" s="7">
-        <v>97394</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="7">
-        <v>105</v>
-      </c>
-      <c r="I19" s="7">
-        <v>112940</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M19" s="7">
-        <v>196</v>
-      </c>
-      <c r="N19" s="7">
-        <v>210334</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2645</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2817264</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2810</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3033382</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5455</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5850646</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2736</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2914658</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2915</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3146322</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5651</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6060980</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>113</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3725,8 +3182,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9C891F-907D-42B2-AFD6-A7A6427FF75C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD34A9C-E6EE-4423-AE38-D81D07DE8278}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3742,7 +3199,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3843,49 +3300,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>2735</v>
+        <v>14108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>2755</v>
+        <v>26750</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="N4" s="7">
-        <v>5490</v>
+        <v>40859</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,49 +3351,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>92</v>
+        <v>493</v>
       </c>
       <c r="D5" s="7">
-        <v>96040</v>
+        <v>510885</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
-        <v>99</v>
+        <v>517</v>
       </c>
       <c r="I5" s="7">
-        <v>98246</v>
+        <v>517613</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>218</v>
+        <v>47</v>
       </c>
       <c r="M5" s="7">
-        <v>191</v>
+        <v>1010</v>
       </c>
       <c r="N5" s="7">
-        <v>194286</v>
+        <v>1028497</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,10 +3402,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>95</v>
+        <v>507</v>
       </c>
       <c r="D6" s="7">
-        <v>98775</v>
+        <v>524993</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3960,10 +3417,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>102</v>
+        <v>544</v>
       </c>
       <c r="I6" s="7">
-        <v>101001</v>
+        <v>544363</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3975,10 +3432,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>197</v>
+        <v>1051</v>
       </c>
       <c r="N6" s="7">
-        <v>199776</v>
+        <v>1069356</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3998,49 +3455,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7">
-        <v>11373</v>
+        <v>29658</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="H7" s="7">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I7" s="7">
-        <v>23995</v>
+        <v>28420</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="M7" s="7">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="N7" s="7">
-        <v>35368</v>
+        <v>58078</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>228</v>
+        <v>90</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>195</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,46 +3506,46 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>401</v>
+        <v>727</v>
       </c>
       <c r="D8" s="7">
-        <v>414845</v>
+        <v>786688</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="H8" s="7">
-        <v>418</v>
+        <v>789</v>
       </c>
       <c r="I8" s="7">
-        <v>419366</v>
+        <v>837953</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="M8" s="7">
-        <v>819</v>
+        <v>1516</v>
       </c>
       <c r="N8" s="7">
-        <v>834212</v>
+        <v>1624641</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>96</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>202</v>
@@ -4100,10 +3557,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>412</v>
+        <v>754</v>
       </c>
       <c r="D9" s="7">
-        <v>426218</v>
+        <v>816346</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4115,10 +3572,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>442</v>
+        <v>818</v>
       </c>
       <c r="I9" s="7">
-        <v>443361</v>
+        <v>866373</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4130,10 +3587,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>854</v>
+        <v>1572</v>
       </c>
       <c r="N9" s="7">
-        <v>869580</v>
+        <v>1682719</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4153,49 +3610,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>29658</v>
+        <v>12132</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="H10" s="7">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>28420</v>
+        <v>23088</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="N10" s="7">
-        <v>58078</v>
+        <v>35220</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,49 +3661,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>727</v>
+        <v>489</v>
       </c>
       <c r="D11" s="7">
-        <v>786688</v>
+        <v>538228</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="H11" s="7">
-        <v>789</v>
+        <v>530</v>
       </c>
       <c r="I11" s="7">
-        <v>837953</v>
+        <v>556650</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="M11" s="7">
-        <v>1516</v>
+        <v>1019</v>
       </c>
       <c r="N11" s="7">
-        <v>1624641</v>
+        <v>1094878</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,10 +3712,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>754</v>
+        <v>501</v>
       </c>
       <c r="D12" s="7">
-        <v>816346</v>
+        <v>550360</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4270,10 +3727,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>818</v>
+        <v>552</v>
       </c>
       <c r="I12" s="7">
-        <v>866373</v>
+        <v>579738</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4285,10 +3742,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1572</v>
+        <v>1053</v>
       </c>
       <c r="N12" s="7">
-        <v>1682719</v>
+        <v>1130098</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4308,49 +3765,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>12132</v>
+        <v>19867</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H13" s="7">
+        <v>23</v>
+      </c>
+      <c r="I13" s="7">
+        <v>24818</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M13" s="7">
+        <v>43</v>
+      </c>
+      <c r="N13" s="7">
+        <v>44685</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H13" s="7">
-        <v>22</v>
-      </c>
-      <c r="I13" s="7">
-        <v>23088</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="M13" s="7">
-        <v>34</v>
-      </c>
-      <c r="N13" s="7">
-        <v>35220</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>257</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,49 +3816,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>489</v>
+        <v>748</v>
       </c>
       <c r="D14" s="7">
-        <v>538228</v>
+        <v>752768</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H14" s="7">
+        <v>790</v>
+      </c>
+      <c r="I14" s="7">
+        <v>852023</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1538</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1604791</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="H14" s="7">
-        <v>530</v>
-      </c>
-      <c r="I14" s="7">
-        <v>556650</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1019</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1094878</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>264</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,10 +3867,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>501</v>
+        <v>768</v>
       </c>
       <c r="D15" s="7">
-        <v>550360</v>
+        <v>772635</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4425,10 +3882,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>552</v>
+        <v>813</v>
       </c>
       <c r="I15" s="7">
-        <v>579738</v>
+        <v>876841</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4440,10 +3897,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1053</v>
+        <v>1581</v>
       </c>
       <c r="N15" s="7">
-        <v>1130098</v>
+        <v>1649476</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4457,55 +3914,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="D16" s="7">
-        <v>19867</v>
+        <v>75765</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>266</v>
+        <v>116</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="H16" s="7">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="I16" s="7">
-        <v>24818</v>
+        <v>103076</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>269</v>
+        <v>163</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>270</v>
+        <v>123</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="N16" s="7">
-        <v>44685</v>
+        <v>178841</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>272</v>
+        <v>51</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,49 +3971,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>748</v>
+        <v>2457</v>
       </c>
       <c r="D17" s="7">
-        <v>752768</v>
+        <v>2588568</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>275</v>
+        <v>125</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7">
-        <v>790</v>
+        <v>2626</v>
       </c>
       <c r="I17" s="7">
-        <v>852023</v>
+        <v>2764239</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>278</v>
+        <v>169</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>280</v>
+        <v>133</v>
       </c>
       <c r="M17" s="7">
-        <v>1538</v>
+        <v>5083</v>
       </c>
       <c r="N17" s="7">
-        <v>1604791</v>
+        <v>5352807</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>281</v>
+        <v>59</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,10 +4022,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>768</v>
+        <v>2530</v>
       </c>
       <c r="D18" s="7">
-        <v>772635</v>
+        <v>2664333</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4580,10 +4037,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>813</v>
+        <v>2727</v>
       </c>
       <c r="I18" s="7">
-        <v>876841</v>
+        <v>2867315</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4595,10 +4052,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1581</v>
+        <v>5257</v>
       </c>
       <c r="N18" s="7">
-        <v>1649476</v>
+        <v>5531648</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4611,171 +4068,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>73</v>
-      </c>
-      <c r="D19" s="7">
-        <v>75765</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H19" s="7">
-        <v>101</v>
-      </c>
-      <c r="I19" s="7">
-        <v>103076</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="M19" s="7">
-        <v>174</v>
-      </c>
-      <c r="N19" s="7">
-        <v>178841</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2457</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2588569</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2626</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2764239</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5083</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5352808</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2530</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2664334</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2727</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2867315</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5257</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5531649</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>113</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4788,8 +4089,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A3A8B8-F0C2-4ECC-A679-43313D9A7105}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B0200F-3915-4B07-A9EA-107ECD829CD2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4805,7 +4106,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4906,49 +4207,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7">
-        <v>4355</v>
+        <v>26776</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>116</v>
+        <v>247</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="I4" s="7">
-        <v>5446</v>
+        <v>23545</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>295</v>
+        <v>134</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="M4" s="7">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="N4" s="7">
-        <v>9802</v>
+        <v>50321</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>298</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>299</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,49 +4258,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>113</v>
+        <v>676</v>
       </c>
       <c r="D5" s="7">
-        <v>96119</v>
+        <v>584528</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>126</v>
+        <v>254</v>
       </c>
       <c r="H5" s="7">
-        <v>232</v>
+        <v>1166</v>
       </c>
       <c r="I5" s="7">
-        <v>122840</v>
+        <v>627987</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>303</v>
+        <v>141</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="M5" s="7">
-        <v>345</v>
+        <v>1842</v>
       </c>
       <c r="N5" s="7">
-        <v>218958</v>
+        <v>1212515</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>308</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,10 +4309,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>115</v>
+        <v>696</v>
       </c>
       <c r="D6" s="7">
-        <v>100474</v>
+        <v>611304</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5023,10 +4324,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>238</v>
+        <v>1197</v>
       </c>
       <c r="I6" s="7">
-        <v>128286</v>
+        <v>651532</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5038,10 +4339,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>353</v>
+        <v>1893</v>
       </c>
       <c r="N6" s="7">
-        <v>228760</v>
+        <v>1262836</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5061,49 +4362,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>20186</v>
+        <v>24378</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>311</v>
+        <v>260</v>
       </c>
       <c r="H7" s="7">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I7" s="7">
-        <v>19234</v>
+        <v>34345</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>312</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>314</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="N7" s="7">
-        <v>39420</v>
+        <v>58723</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>91</v>
+        <v>238</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>316</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,49 +4413,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>563</v>
+        <v>914</v>
       </c>
       <c r="D8" s="7">
-        <v>505963</v>
+        <v>1142338</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="H8" s="7">
-        <v>934</v>
+        <v>1443</v>
       </c>
       <c r="I8" s="7">
-        <v>550263</v>
+        <v>907980</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>320</v>
+        <v>144</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>321</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>322</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
-        <v>1497</v>
+        <v>2357</v>
       </c>
       <c r="N8" s="7">
-        <v>1056226</v>
+        <v>2050317</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>100</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>323</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,10 +4464,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>581</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>526149</v>
+        <v>1166716</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5178,10 +4479,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>959</v>
+        <v>1486</v>
       </c>
       <c r="I9" s="7">
-        <v>569497</v>
+        <v>942325</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5193,10 +4494,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1540</v>
+        <v>2422</v>
       </c>
       <c r="N9" s="7">
-        <v>1095646</v>
+        <v>2109040</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5216,49 +4517,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7">
-        <v>24669</v>
+        <v>36472</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>325</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>326</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>327</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="I10" s="7">
-        <v>37947</v>
+        <v>40390</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>169</v>
+        <v>246</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>328</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N10" s="7">
-        <v>62616</v>
+        <v>76862</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>329</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>330</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>331</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,49 +4568,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>914</v>
+        <v>623</v>
       </c>
       <c r="D11" s="7">
-        <v>990927</v>
+        <v>649795</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>332</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>333</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>334</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
-        <v>1443</v>
+        <v>966</v>
       </c>
       <c r="I11" s="7">
-        <v>1004153</v>
+        <v>881663</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>335</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
-        <v>2357</v>
+        <v>1589</v>
       </c>
       <c r="N11" s="7">
-        <v>1995080</v>
+        <v>1531458</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5318,10 +4619,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="D12" s="7">
-        <v>1015596</v>
+        <v>686267</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5333,10 +4634,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1486</v>
+        <v>1024</v>
       </c>
       <c r="I12" s="7">
-        <v>1042100</v>
+        <v>922053</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5348,10 +4649,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2422</v>
+        <v>1679</v>
       </c>
       <c r="N12" s="7">
-        <v>2057696</v>
+        <v>1608320</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5371,49 +4672,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>36225</v>
+        <v>19893</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>340</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>341</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I13" s="7">
-        <v>44622</v>
+        <v>40078</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>343</v>
+        <v>152</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>344</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="N13" s="7">
-        <v>80847</v>
+        <v>59972</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>345</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>346</v>
+        <v>249</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>347</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,49 +4723,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>623</v>
+        <v>946</v>
       </c>
       <c r="D14" s="7">
-        <v>672316</v>
+        <v>870042</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
-        <v>966</v>
+        <v>1461</v>
       </c>
       <c r="I14" s="7">
-        <v>817566</v>
+        <v>1022839</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>351</v>
+        <v>158</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>159</v>
       </c>
       <c r="M14" s="7">
-        <v>1589</v>
+        <v>2407</v>
       </c>
       <c r="N14" s="7">
-        <v>1489883</v>
+        <v>1892879</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>290</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,10 +4774,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>655</v>
+        <v>966</v>
       </c>
       <c r="D15" s="7">
-        <v>708541</v>
+        <v>889935</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5488,10 +4789,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1024</v>
+        <v>1510</v>
       </c>
       <c r="I15" s="7">
-        <v>862188</v>
+        <v>1062917</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5503,10 +4804,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1679</v>
+        <v>2476</v>
       </c>
       <c r="N15" s="7">
-        <v>1570730</v>
+        <v>1952851</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5520,55 +4821,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="D16" s="7">
-        <v>21154</v>
+        <v>107520</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>119</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>357</v>
+        <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>358</v>
+        <v>294</v>
       </c>
       <c r="H16" s="7">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="I16" s="7">
-        <v>44175</v>
+        <v>138358</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>359</v>
+        <v>295</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>360</v>
+        <v>296</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>361</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
-        <v>69</v>
+        <v>275</v>
       </c>
       <c r="N16" s="7">
-        <v>65329</v>
+        <v>245878</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>362</v>
+        <v>297</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>363</v>
+        <v>298</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,49 +4878,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>946</v>
+        <v>3159</v>
       </c>
       <c r="D17" s="7">
-        <v>905224</v>
+        <v>3246701</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>129</v>
+        <v>299</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>364</v>
+        <v>300</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>365</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
-        <v>1461</v>
+        <v>5036</v>
       </c>
       <c r="I17" s="7">
-        <v>1070601</v>
+        <v>3440469</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>366</v>
+        <v>302</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>367</v>
+        <v>114</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>368</v>
+        <v>303</v>
       </c>
       <c r="M17" s="7">
-        <v>2407</v>
+        <v>8195</v>
       </c>
       <c r="N17" s="7">
-        <v>1975825</v>
+        <v>6687170</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>369</v>
+        <v>304</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>108</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>370</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,10 +4929,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>966</v>
+        <v>3253</v>
       </c>
       <c r="D18" s="7">
-        <v>926378</v>
+        <v>3354221</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5643,10 +4944,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1510</v>
+        <v>5217</v>
       </c>
       <c r="I18" s="7">
-        <v>1114776</v>
+        <v>3578827</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5658,10 +4959,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2476</v>
+        <v>8470</v>
       </c>
       <c r="N18" s="7">
-        <v>2041154</v>
+        <v>6933048</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5674,171 +4975,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>94</v>
-      </c>
-      <c r="D19" s="7">
-        <v>106588</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="H19" s="7">
-        <v>181</v>
-      </c>
-      <c r="I19" s="7">
-        <v>151425</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="M19" s="7">
-        <v>275</v>
-      </c>
-      <c r="N19" s="7">
-        <v>258013</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3159</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3170550</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5036</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3565423</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8195</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6735973</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3253</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3277138</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5217</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3716848</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8470</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6993986</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>113</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
